--- a/lib/soes-esi/lan9252_spi.xlsx
+++ b/lib/soes-esi/lan9252_spi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my-projects\work\crc-inc\workspace\soes-stm32f3\lib\soes-esi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46CFD35-7AEF-49E9-9933-800EEA51B049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D5A04A-A109-461A-93A2-50CF30D0C9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="Profile" sheetId="11" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Profile!$B$10:$P$276</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Profile!$B$1:$P$277</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Profile!$B$10:$P$201</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Profile!$B$1:$P$202</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="99">
   <si>
     <t>Index</t>
   </si>
@@ -406,9 +406,6 @@
     <t>0x7003</t>
   </si>
   <si>
-    <t>RTR Filter</t>
-  </si>
-  <si>
     <t>LED state TX</t>
   </si>
   <si>
@@ -427,12 +424,6 @@
     <t>0x600D</t>
   </si>
   <si>
-    <t>0x600E</t>
-  </si>
-  <si>
-    <t>0x600F</t>
-  </si>
-  <si>
     <t>LED state RX</t>
   </si>
   <si>
@@ -448,13 +439,16 @@
     <t>RTD Temperature</t>
   </si>
   <si>
-    <t>RTD High Fault</t>
-  </si>
-  <si>
-    <t>RTD Low Fault</t>
-  </si>
-  <si>
     <t>RTD Fault Status</t>
+  </si>
+  <si>
+    <t>0x8001</t>
+  </si>
+  <si>
+    <t>IMU Data Rate</t>
+  </si>
+  <si>
+    <t>RTD 50/60 Hz Filter</t>
   </si>
 </sst>
 </file>
@@ -875,11 +869,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:T280"/>
+  <dimension ref="B1:T205"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P52" sqref="P52"/>
+      <pane ySplit="10" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1532,7 +1526,7 @@
       <c r="D36" s="8"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
@@ -2140,7 +2134,7 @@
       <c r="D63" s="8"/>
       <c r="E63" s="10"/>
       <c r="F63" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
@@ -2748,7 +2742,7 @@
       <c r="D90" s="8"/>
       <c r="E90" s="10"/>
       <c r="F90" s="10" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="G90" s="10"/>
       <c r="H90" s="10"/>
@@ -2765,7 +2759,7 @@
         <v>1</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="F91" s="10"/>
       <c r="G91" s="10" t="s">
@@ -2784,57 +2778,44 @@
       <c r="P91"/>
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D92" s="8">
-        <v>2</v>
-      </c>
-      <c r="E92" s="10" t="s">
-        <v>47</v>
-      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="10"/>
       <c r="F92" s="10"/>
-      <c r="G92" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="G92" s="10"/>
       <c r="H92" s="10"/>
       <c r="I92" s="10"/>
-      <c r="L92" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M92" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="N92"/>
       <c r="O92"/>
       <c r="P92"/>
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D93" s="8">
-        <v>3</v>
-      </c>
-      <c r="E93" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F93" s="10"/>
-      <c r="G93" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="B93" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G93" s="10"/>
       <c r="H93" s="10"/>
       <c r="I93" s="10"/>
       <c r="L93" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M93" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="N93"/>
       <c r="O93"/>
       <c r="P93"/>
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D94" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="F94" s="10"/>
       <c r="G94" s="10" t="s">
@@ -2853,57 +2834,44 @@
       <c r="P94"/>
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D95" s="8">
-        <v>5</v>
-      </c>
-      <c r="E95" s="10" t="s">
-        <v>47</v>
-      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="10"/>
       <c r="F95" s="10"/>
-      <c r="G95" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="G95" s="10"/>
       <c r="H95" s="10"/>
       <c r="I95" s="10"/>
-      <c r="L95" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M95" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="N95"/>
       <c r="O95"/>
       <c r="P95"/>
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D96" s="8">
-        <v>6</v>
-      </c>
-      <c r="E96" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F96" s="10"/>
-      <c r="G96" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="B96" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G96" s="10"/>
       <c r="H96" s="10"/>
       <c r="I96" s="10"/>
       <c r="L96" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M96" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="N96"/>
       <c r="O96"/>
       <c r="P96"/>
     </row>
-    <row r="97" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D97" s="8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="F97" s="10"/>
       <c r="G97" s="10" t="s">
@@ -2921,58 +2889,45 @@
       <c r="O97"/>
       <c r="P97"/>
     </row>
-    <row r="98" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D98" s="8">
-        <v>8</v>
-      </c>
-      <c r="E98" s="10" t="s">
-        <v>47</v>
-      </c>
+    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D98" s="8"/>
+      <c r="E98" s="10"/>
       <c r="F98" s="10"/>
-      <c r="G98" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="G98" s="10"/>
       <c r="H98" s="10"/>
       <c r="I98" s="10"/>
-      <c r="L98" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M98" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="N98"/>
       <c r="O98"/>
       <c r="P98"/>
     </row>
-    <row r="99" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D99" s="8">
-        <v>9</v>
-      </c>
-      <c r="E99" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F99" s="10"/>
-      <c r="G99" s="10" t="s">
-        <v>41</v>
-      </c>
+    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B99" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G99" s="10"/>
       <c r="H99" s="10"/>
       <c r="I99" s="10"/>
       <c r="L99" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M99" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="N99"/>
       <c r="O99"/>
       <c r="P99"/>
     </row>
-    <row r="100" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D100" s="8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="F100" s="10"/>
       <c r="G100" s="10" t="s">
@@ -2990,58 +2945,45 @@
       <c r="O100"/>
       <c r="P100"/>
     </row>
-    <row r="101" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D101" s="8">
-        <v>11</v>
-      </c>
-      <c r="E101" s="10" t="s">
-        <v>47</v>
-      </c>
+    <row r="101" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D101" s="8"/>
+      <c r="E101" s="10"/>
       <c r="F101" s="10"/>
-      <c r="G101" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="G101" s="10"/>
       <c r="H101" s="10"/>
       <c r="I101" s="10"/>
-      <c r="L101" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M101" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="N101"/>
       <c r="O101"/>
       <c r="P101"/>
     </row>
-    <row r="102" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D102" s="8">
-        <v>12</v>
-      </c>
-      <c r="E102" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F102" s="10"/>
-      <c r="G102" s="10" t="s">
-        <v>41</v>
-      </c>
+    <row r="102" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B102" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G102" s="10"/>
       <c r="H102" s="10"/>
       <c r="I102" s="10"/>
       <c r="L102" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M102" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="N102"/>
       <c r="O102"/>
       <c r="P102"/>
     </row>
-    <row r="103" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D103" s="8">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="F103" s="10"/>
       <c r="G103" s="10" t="s">
@@ -3059,58 +3001,45 @@
       <c r="O103"/>
       <c r="P103"/>
     </row>
-    <row r="104" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D104" s="8">
-        <v>14</v>
-      </c>
-      <c r="E104" s="10" t="s">
-        <v>47</v>
-      </c>
+    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D104" s="8"/>
+      <c r="E104" s="10"/>
       <c r="F104" s="10"/>
-      <c r="G104" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="G104" s="10"/>
       <c r="H104" s="10"/>
       <c r="I104" s="10"/>
-      <c r="L104" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M104" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="N104"/>
       <c r="O104"/>
       <c r="P104"/>
     </row>
-    <row r="105" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D105" s="8">
-        <v>15</v>
-      </c>
-      <c r="E105" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F105" s="10"/>
-      <c r="G105" s="10" t="s">
-        <v>41</v>
-      </c>
+    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B105" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G105" s="10"/>
       <c r="H105" s="10"/>
       <c r="I105" s="10"/>
       <c r="L105" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M105" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="N105"/>
       <c r="O105"/>
       <c r="P105"/>
     </row>
-    <row r="106" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D106" s="8">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="F106" s="10"/>
       <c r="G106" s="10" t="s">
@@ -3128,55 +3057,42 @@
       <c r="O106"/>
       <c r="P106"/>
     </row>
-    <row r="107" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D107" s="8">
-        <v>17</v>
-      </c>
-      <c r="E107" s="10" t="s">
-        <v>47</v>
-      </c>
+    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D107" s="8"/>
+      <c r="E107" s="10"/>
       <c r="F107" s="10"/>
-      <c r="G107" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="G107" s="10"/>
       <c r="H107" s="10"/>
       <c r="I107" s="10"/>
-      <c r="L107" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M107" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="N107"/>
       <c r="O107"/>
       <c r="P107"/>
     </row>
-    <row r="108" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D108" s="8">
-        <v>18</v>
-      </c>
-      <c r="E108" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F108" s="10"/>
-      <c r="G108" s="10" t="s">
-        <v>41</v>
-      </c>
+    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B108" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G108" s="10"/>
       <c r="H108" s="10"/>
       <c r="I108" s="10"/>
       <c r="L108" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M108" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="N108"/>
       <c r="O108"/>
       <c r="P108"/>
     </row>
-    <row r="109" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D109" s="8">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E109" s="10" t="s">
         <v>47</v>
@@ -3197,9 +3113,9 @@
       <c r="O109"/>
       <c r="P109"/>
     </row>
-    <row r="110" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D110" s="8">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E110" s="10" t="s">
         <v>47</v>
@@ -3220,9 +3136,9 @@
       <c r="O110"/>
       <c r="P110"/>
     </row>
-    <row r="111" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D111" s="8">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E111" s="10" t="s">
         <v>47</v>
@@ -3243,9 +3159,9 @@
       <c r="O111"/>
       <c r="P111"/>
     </row>
-    <row r="112" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D112" s="8">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E112" s="10" t="s">
         <v>47</v>
@@ -3267,57 +3183,44 @@
       <c r="P112"/>
     </row>
     <row r="113" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D113" s="8">
-        <v>23</v>
-      </c>
-      <c r="E113" s="10" t="s">
-        <v>47</v>
-      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="10"/>
       <c r="F113" s="10"/>
-      <c r="G113" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="G113" s="10"/>
       <c r="H113" s="10"/>
       <c r="I113" s="10"/>
-      <c r="L113" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M113" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="N113"/>
       <c r="O113"/>
       <c r="P113"/>
     </row>
     <row r="114" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D114" s="8">
-        <v>24</v>
-      </c>
-      <c r="E114" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F114" s="10"/>
-      <c r="G114" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="B114" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G114" s="10"/>
       <c r="H114" s="10"/>
       <c r="I114" s="10"/>
       <c r="L114" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M114" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="N114"/>
       <c r="O114"/>
       <c r="P114"/>
     </row>
     <row r="115" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D115" s="8">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="F115" s="10"/>
       <c r="G115" s="10" t="s">
@@ -3336,67 +3239,67 @@
       <c r="P115"/>
     </row>
     <row r="116" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D116" s="8"/>
-      <c r="E116" s="10"/>
+      <c r="D116" s="8">
+        <v>2</v>
+      </c>
+      <c r="E116" s="10" t="s">
+        <v>62</v>
+      </c>
       <c r="F116" s="10"/>
-      <c r="G116" s="10"/>
+      <c r="G116" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="H116" s="10"/>
       <c r="I116" s="10"/>
+      <c r="L116" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M116" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="N116"/>
       <c r="O116"/>
       <c r="P116"/>
     </row>
     <row r="117" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B117" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="D117" s="8"/>
       <c r="E117" s="10"/>
-      <c r="F117" s="10" t="s">
-        <v>100</v>
-      </c>
+      <c r="F117" s="10"/>
       <c r="G117" s="10"/>
       <c r="H117" s="10"/>
       <c r="I117" s="10"/>
-      <c r="L117" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="N117"/>
       <c r="O117"/>
       <c r="P117"/>
     </row>
     <row r="118" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D118" s="8">
-        <v>1</v>
-      </c>
-      <c r="E118" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F118" s="10"/>
-      <c r="G118" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="B118" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="10"/>
+      <c r="F118" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G118" s="10"/>
       <c r="H118" s="10"/>
       <c r="I118" s="10"/>
       <c r="L118" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M118" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="N118"/>
       <c r="O118"/>
       <c r="P118"/>
     </row>
     <row r="119" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D119" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F119" s="10"/>
       <c r="G119" s="10" t="s">
@@ -3416,10 +3319,10 @@
     </row>
     <row r="120" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D120" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F120" s="10"/>
       <c r="G120" s="10" t="s">
@@ -3439,10 +3342,10 @@
     </row>
     <row r="121" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D121" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F121" s="10"/>
       <c r="G121" s="10" t="s">
@@ -3462,10 +3365,10 @@
     </row>
     <row r="122" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D122" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F122" s="10"/>
       <c r="G122" s="10" t="s">
@@ -3485,10 +3388,10 @@
     </row>
     <row r="123" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D123" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F123" s="10"/>
       <c r="G123" s="10" t="s">
@@ -3508,10 +3411,10 @@
     </row>
     <row r="124" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D124" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F124" s="10"/>
       <c r="G124" s="10" t="s">
@@ -3531,10 +3434,10 @@
     </row>
     <row r="125" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D125" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F125" s="10"/>
       <c r="G125" s="10" t="s">
@@ -3554,10 +3457,10 @@
     </row>
     <row r="126" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D126" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F126" s="10"/>
       <c r="G126" s="10" t="s">
@@ -3576,57 +3479,44 @@
       <c r="P126"/>
     </row>
     <row r="127" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D127" s="8">
-        <v>10</v>
-      </c>
-      <c r="E127" s="10" t="s">
-        <v>47</v>
-      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="10"/>
       <c r="F127" s="10"/>
-      <c r="G127" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="G127" s="10"/>
       <c r="H127" s="10"/>
       <c r="I127" s="10"/>
-      <c r="L127" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M127" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="N127"/>
       <c r="O127"/>
       <c r="P127"/>
     </row>
     <row r="128" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D128" s="8">
-        <v>11</v>
-      </c>
-      <c r="E128" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F128" s="10"/>
-      <c r="G128" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="B128" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G128" s="10"/>
       <c r="H128" s="10"/>
       <c r="I128" s="10"/>
       <c r="L128" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M128" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="N128"/>
       <c r="O128"/>
       <c r="P128"/>
     </row>
     <row r="129" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D129" s="8">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F129" s="10"/>
       <c r="G129" s="10" t="s">
@@ -3646,10 +3536,10 @@
     </row>
     <row r="130" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D130" s="8">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F130" s="10"/>
       <c r="G130" s="10" t="s">
@@ -3669,10 +3559,10 @@
     </row>
     <row r="131" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D131" s="8">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F131" s="10"/>
       <c r="G131" s="10" t="s">
@@ -3692,10 +3582,10 @@
     </row>
     <row r="132" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D132" s="8">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F132" s="10"/>
       <c r="G132" s="10" t="s">
@@ -3715,10 +3605,10 @@
     </row>
     <row r="133" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D133" s="8">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F133" s="10"/>
       <c r="G133" s="10" t="s">
@@ -3738,10 +3628,10 @@
     </row>
     <row r="134" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D134" s="8">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F134" s="10"/>
       <c r="G134" s="10" t="s">
@@ -3761,10 +3651,10 @@
     </row>
     <row r="135" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D135" s="8">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F135" s="10"/>
       <c r="G135" s="10" t="s">
@@ -3784,10 +3674,10 @@
     </row>
     <row r="136" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D136" s="8">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E136" s="10" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F136" s="10"/>
       <c r="G136" s="10" t="s">
@@ -3806,57 +3696,44 @@
       <c r="P136"/>
     </row>
     <row r="137" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D137" s="8">
-        <v>20</v>
-      </c>
-      <c r="E137" s="10" t="s">
-        <v>47</v>
-      </c>
+      <c r="D137" s="8"/>
+      <c r="E137" s="10"/>
       <c r="F137" s="10"/>
-      <c r="G137" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="G137" s="10"/>
       <c r="H137" s="10"/>
       <c r="I137" s="10"/>
-      <c r="L137" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M137" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="N137"/>
       <c r="O137"/>
       <c r="P137"/>
     </row>
     <row r="138" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D138" s="8">
-        <v>21</v>
-      </c>
-      <c r="E138" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F138" s="10"/>
-      <c r="G138" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="B138" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D138" s="8"/>
+      <c r="E138" s="10"/>
+      <c r="F138" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G138" s="10"/>
       <c r="H138" s="10"/>
       <c r="I138" s="10"/>
       <c r="L138" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M138" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="N138"/>
       <c r="O138"/>
       <c r="P138"/>
     </row>
     <row r="139" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D139" s="8">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E139" s="10" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F139" s="10"/>
       <c r="G139" s="10" t="s">
@@ -3876,10 +3753,10 @@
     </row>
     <row r="140" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D140" s="8">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F140" s="10"/>
       <c r="G140" s="10" t="s">
@@ -3899,10 +3776,10 @@
     </row>
     <row r="141" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D141" s="8">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F141" s="10"/>
       <c r="G141" s="10" t="s">
@@ -3922,10 +3799,10 @@
     </row>
     <row r="142" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D142" s="8">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="E142" s="10" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F142" s="10"/>
       <c r="G142" s="10" t="s">
@@ -3944,44 +3821,57 @@
       <c r="P142"/>
     </row>
     <row r="143" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D143" s="8"/>
-      <c r="E143" s="10"/>
+      <c r="D143" s="8">
+        <v>5</v>
+      </c>
+      <c r="E143" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="F143" s="10"/>
-      <c r="G143" s="10"/>
+      <c r="G143" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="H143" s="10"/>
       <c r="I143" s="10"/>
+      <c r="L143" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M143" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="N143"/>
       <c r="O143"/>
       <c r="P143"/>
     </row>
     <row r="144" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B144" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D144" s="8"/>
-      <c r="E144" s="10"/>
-      <c r="F144" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G144" s="10"/>
+      <c r="D144" s="8">
+        <v>6</v>
+      </c>
+      <c r="E144" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F144" s="10"/>
+      <c r="G144" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="H144" s="10"/>
       <c r="I144" s="10"/>
       <c r="L144" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="M144" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="N144"/>
       <c r="O144"/>
       <c r="P144"/>
     </row>
     <row r="145" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D145" s="8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F145" s="10"/>
       <c r="G145" s="10" t="s">
@@ -4000,131 +3890,142 @@
       <c r="P145"/>
     </row>
     <row r="146" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D146" s="8"/>
-      <c r="E146" s="10"/>
+      <c r="D146" s="8">
+        <v>8</v>
+      </c>
+      <c r="E146" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="F146" s="10"/>
-      <c r="G146" s="10"/>
+      <c r="G146" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="H146" s="10"/>
       <c r="I146" s="10"/>
+      <c r="L146" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M146" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="N146"/>
       <c r="O146"/>
       <c r="P146"/>
     </row>
     <row r="147" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B147" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="D147" s="8"/>
       <c r="E147" s="10"/>
-      <c r="F147" s="10" t="s">
-        <v>69</v>
-      </c>
+      <c r="F147" s="10"/>
       <c r="G147" s="10"/>
       <c r="H147" s="10"/>
       <c r="I147" s="10"/>
-      <c r="L147" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="N147"/>
       <c r="O147"/>
       <c r="P147"/>
     </row>
     <row r="148" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D148" s="8">
-        <v>1</v>
-      </c>
-      <c r="E148" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F148" s="10"/>
-      <c r="G148" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="B148" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D148" s="8"/>
+      <c r="E148" s="10"/>
+      <c r="F148" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G148" s="10"/>
       <c r="H148" s="10"/>
       <c r="I148" s="10"/>
       <c r="L148" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M148" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="N148"/>
       <c r="O148"/>
       <c r="P148"/>
     </row>
     <row r="149" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D149" s="8"/>
-      <c r="E149" s="10"/>
+      <c r="D149" s="8">
+        <v>1</v>
+      </c>
+      <c r="E149" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="F149" s="10"/>
-      <c r="G149" s="10"/>
+      <c r="G149" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="H149" s="10"/>
       <c r="I149" s="10"/>
+      <c r="L149" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M149" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="N149"/>
       <c r="O149"/>
       <c r="P149"/>
     </row>
     <row r="150" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B150" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D150" s="8"/>
-      <c r="E150" s="10"/>
-      <c r="F150" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G150" s="10"/>
+      <c r="D150" s="8">
+        <v>2</v>
+      </c>
+      <c r="E150" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F150" s="10"/>
+      <c r="G150" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="H150" s="10"/>
       <c r="I150" s="10"/>
       <c r="L150" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="M150" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="N150"/>
       <c r="O150"/>
       <c r="P150"/>
     </row>
     <row r="151" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D151" s="8">
-        <v>1</v>
-      </c>
-      <c r="E151" s="10" t="s">
-        <v>62</v>
-      </c>
+      <c r="D151" s="8"/>
+      <c r="E151" s="10"/>
       <c r="F151" s="10"/>
-      <c r="G151" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="G151" s="10"/>
       <c r="H151" s="10"/>
       <c r="I151" s="10"/>
-      <c r="L151" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M151" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="N151"/>
       <c r="O151"/>
       <c r="P151"/>
     </row>
-    <row r="152" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D152" s="8"/>
-      <c r="E152" s="10"/>
-      <c r="F152" s="10"/>
-      <c r="G152" s="10"/>
-      <c r="H152" s="10"/>
-      <c r="I152" s="10"/>
-      <c r="N152"/>
-      <c r="O152"/>
-      <c r="P152"/>
+    <row r="152" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D152" s="11"/>
+      <c r="E152" s="11"/>
+      <c r="F152" s="11"/>
+      <c r="G152" s="11"/>
+      <c r="H152" s="11"/>
+      <c r="I152" s="11"/>
+      <c r="J152" s="11"/>
+      <c r="K152" s="11"/>
+      <c r="L152" s="11"/>
+      <c r="M152" s="11"/>
+      <c r="N152" s="11"/>
+      <c r="O152" s="11"/>
+      <c r="P152" s="11"/>
     </row>
     <row r="153" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B153" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>46</v>
@@ -4132,7 +4033,7 @@
       <c r="D153" s="8"/>
       <c r="E153" s="10"/>
       <c r="F153" s="10" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="G153" s="10"/>
       <c r="H153" s="10"/>
@@ -4149,7 +4050,7 @@
         <v>1</v>
       </c>
       <c r="E154" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F154" s="10"/>
       <c r="G154" s="10" t="s">
@@ -4158,43 +4059,56 @@
       <c r="H154" s="10"/>
       <c r="I154" s="10"/>
       <c r="L154" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="M154" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N154"/>
       <c r="O154"/>
       <c r="P154"/>
     </row>
     <row r="155" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D155" s="8"/>
-      <c r="E155" s="10"/>
+      <c r="D155" s="8">
+        <v>2</v>
+      </c>
+      <c r="E155" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="F155" s="10"/>
-      <c r="G155" s="10"/>
+      <c r="G155" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="H155" s="10"/>
       <c r="I155" s="10"/>
+      <c r="L155" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M155" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="N155"/>
       <c r="O155"/>
       <c r="P155"/>
     </row>
     <row r="156" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B156" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D156" s="8"/>
-      <c r="E156" s="10"/>
-      <c r="F156" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G156" s="10"/>
+      <c r="D156" s="8">
+        <v>3</v>
+      </c>
+      <c r="E156" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F156" s="10"/>
+      <c r="G156" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="H156" s="10"/>
       <c r="I156" s="10"/>
       <c r="L156" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
+      </c>
+      <c r="M156" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="N156"/>
       <c r="O156"/>
@@ -4202,10 +4116,10 @@
     </row>
     <row r="157" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D157" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E157" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F157" s="10"/>
       <c r="G157" s="10" t="s">
@@ -4214,43 +4128,56 @@
       <c r="H157" s="10"/>
       <c r="I157" s="10"/>
       <c r="L157" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="M157" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N157"/>
       <c r="O157"/>
       <c r="P157"/>
     </row>
     <row r="158" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D158" s="8"/>
-      <c r="E158" s="10"/>
+      <c r="D158" s="8">
+        <v>5</v>
+      </c>
+      <c r="E158" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="F158" s="10"/>
-      <c r="G158" s="10"/>
+      <c r="G158" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="H158" s="10"/>
       <c r="I158" s="10"/>
+      <c r="L158" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M158" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="N158"/>
       <c r="O158"/>
       <c r="P158"/>
     </row>
     <row r="159" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B159" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D159" s="8"/>
-      <c r="E159" s="10"/>
-      <c r="F159" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="G159" s="10"/>
+      <c r="D159" s="8">
+        <v>6</v>
+      </c>
+      <c r="E159" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F159" s="10"/>
+      <c r="G159" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="H159" s="10"/>
       <c r="I159" s="10"/>
       <c r="L159" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
+      </c>
+      <c r="M159" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="N159"/>
       <c r="O159"/>
@@ -4258,10 +4185,10 @@
     </row>
     <row r="160" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D160" s="8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E160" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F160" s="10"/>
       <c r="G160" s="10" t="s">
@@ -4270,77 +4197,77 @@
       <c r="H160" s="10"/>
       <c r="I160" s="10"/>
       <c r="L160" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="M160" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N160"/>
       <c r="O160"/>
       <c r="P160"/>
     </row>
     <row r="161" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D161" s="8"/>
-      <c r="E161" s="10"/>
+      <c r="D161" s="8">
+        <v>8</v>
+      </c>
+      <c r="E161" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="F161" s="10"/>
-      <c r="G161" s="10"/>
+      <c r="G161" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="H161" s="10"/>
       <c r="I161" s="10"/>
+      <c r="L161" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M161" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="N161"/>
       <c r="O161"/>
       <c r="P161"/>
     </row>
     <row r="162" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B162" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="D162" s="8"/>
       <c r="E162" s="10"/>
-      <c r="F162" s="10" t="s">
-        <v>78</v>
-      </c>
+      <c r="F162" s="10"/>
       <c r="G162" s="10"/>
       <c r="H162" s="10"/>
       <c r="I162" s="10"/>
-      <c r="L162" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="N162"/>
       <c r="O162"/>
       <c r="P162"/>
     </row>
     <row r="163" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D163" s="8">
-        <v>1</v>
-      </c>
-      <c r="E163" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F163" s="10"/>
-      <c r="G163" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="B163" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D163" s="8"/>
+      <c r="E163" s="10"/>
+      <c r="F163" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G163" s="10"/>
       <c r="H163" s="10"/>
       <c r="I163" s="10"/>
       <c r="L163" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M163" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="N163"/>
       <c r="O163"/>
       <c r="P163"/>
     </row>
     <row r="164" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D164" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E164" s="10" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F164" s="10"/>
       <c r="G164" s="10" t="s">
@@ -4349,10 +4276,10 @@
       <c r="H164" s="10"/>
       <c r="I164" s="10"/>
       <c r="L164" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="M164" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N164"/>
       <c r="O164"/>
@@ -4360,10 +4287,10 @@
     </row>
     <row r="165" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D165" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E165" s="10" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F165" s="10"/>
       <c r="G165" s="10" t="s">
@@ -4372,10 +4299,10 @@
       <c r="H165" s="10"/>
       <c r="I165" s="10"/>
       <c r="L165" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="M165" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N165"/>
       <c r="O165"/>
@@ -4383,10 +4310,10 @@
     </row>
     <row r="166" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D166" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E166" s="10" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F166" s="10"/>
       <c r="G166" s="10" t="s">
@@ -4395,43 +4322,56 @@
       <c r="H166" s="10"/>
       <c r="I166" s="10"/>
       <c r="L166" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N166"/>
       <c r="O166"/>
       <c r="P166"/>
     </row>
     <row r="167" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D167" s="8"/>
-      <c r="E167" s="10"/>
+      <c r="D167" s="8">
+        <v>4</v>
+      </c>
+      <c r="E167" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="F167" s="10"/>
-      <c r="G167" s="10"/>
+      <c r="G167" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="H167" s="10"/>
       <c r="I167" s="10"/>
+      <c r="L167" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M167" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="N167"/>
       <c r="O167"/>
       <c r="P167"/>
     </row>
     <row r="168" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B168" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D168" s="8"/>
-      <c r="E168" s="10"/>
-      <c r="F168" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="G168" s="10"/>
+      <c r="D168" s="8">
+        <v>5</v>
+      </c>
+      <c r="E168" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F168" s="10"/>
+      <c r="G168" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="H168" s="10"/>
       <c r="I168" s="10"/>
       <c r="L168" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
+      </c>
+      <c r="M168" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="N168"/>
       <c r="O168"/>
@@ -4439,10 +4379,10 @@
     </row>
     <row r="169" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D169" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E169" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F169" s="10"/>
       <c r="G169" s="10" t="s">
@@ -4451,10 +4391,10 @@
       <c r="H169" s="10"/>
       <c r="I169" s="10"/>
       <c r="L169" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="M169" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N169"/>
       <c r="O169"/>
@@ -4462,10 +4402,10 @@
     </row>
     <row r="170" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D170" s="8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E170" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F170" s="10"/>
       <c r="G170" s="10" t="s">
@@ -4474,74 +4414,74 @@
       <c r="H170" s="10"/>
       <c r="I170" s="10"/>
       <c r="L170" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="M170" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N170"/>
       <c r="O170"/>
       <c r="P170"/>
     </row>
     <row r="171" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D171" s="8"/>
-      <c r="E171" s="10"/>
+      <c r="D171" s="8">
+        <v>8</v>
+      </c>
+      <c r="E171" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="F171" s="10"/>
-      <c r="G171" s="10"/>
+      <c r="G171" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="H171" s="10"/>
       <c r="I171" s="10"/>
+      <c r="L171" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M171" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="N171"/>
       <c r="O171"/>
       <c r="P171"/>
     </row>
     <row r="172" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B172" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="D172" s="8"/>
       <c r="E172" s="10"/>
-      <c r="F172" s="10" t="s">
-        <v>85</v>
-      </c>
+      <c r="F172" s="10"/>
       <c r="G172" s="10"/>
       <c r="H172" s="10"/>
       <c r="I172" s="10"/>
-      <c r="L172" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="N172"/>
       <c r="O172"/>
       <c r="P172"/>
     </row>
     <row r="173" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D173" s="8">
-        <v>1</v>
-      </c>
-      <c r="E173" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F173" s="10"/>
-      <c r="G173" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="B173" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D173" s="8"/>
+      <c r="E173" s="10"/>
+      <c r="F173" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G173" s="10"/>
       <c r="H173" s="10"/>
       <c r="I173" s="10"/>
       <c r="L173" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M173" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="N173"/>
       <c r="O173"/>
       <c r="P173"/>
     </row>
     <row r="174" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D174" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E174" s="10" t="s">
         <v>59</v>
@@ -4553,10 +4493,10 @@
       <c r="H174" s="10"/>
       <c r="I174" s="10"/>
       <c r="L174" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="M174" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N174"/>
       <c r="O174"/>
@@ -4564,7 +4504,7 @@
     </row>
     <row r="175" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D175" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E175" s="10" t="s">
         <v>59</v>
@@ -4576,10 +4516,10 @@
       <c r="H175" s="10"/>
       <c r="I175" s="10"/>
       <c r="L175" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="M175" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N175"/>
       <c r="O175"/>
@@ -4587,7 +4527,7 @@
     </row>
     <row r="176" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D176" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E176" s="10" t="s">
         <v>59</v>
@@ -4599,10 +4539,10 @@
       <c r="H176" s="10"/>
       <c r="I176" s="10"/>
       <c r="L176" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="M176" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N176"/>
       <c r="O176"/>
@@ -4610,7 +4550,7 @@
     </row>
     <row r="177" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D177" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E177" s="10" t="s">
         <v>59</v>
@@ -4622,10 +4562,10 @@
       <c r="H177" s="10"/>
       <c r="I177" s="10"/>
       <c r="L177" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="M177" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N177"/>
       <c r="O177"/>
@@ -4633,7 +4573,7 @@
     </row>
     <row r="178" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D178" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E178" s="10" t="s">
         <v>59</v>
@@ -4645,10 +4585,10 @@
       <c r="H178" s="10"/>
       <c r="I178" s="10"/>
       <c r="L178" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="M178" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N178"/>
       <c r="O178"/>
@@ -4656,7 +4596,7 @@
     </row>
     <row r="179" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D179" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E179" s="10" t="s">
         <v>59</v>
@@ -4668,10 +4608,10 @@
       <c r="H179" s="10"/>
       <c r="I179" s="10"/>
       <c r="L179" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="M179" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N179"/>
       <c r="O179"/>
@@ -4679,7 +4619,7 @@
     </row>
     <row r="180" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D180" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E180" s="10" t="s">
         <v>59</v>
@@ -4691,74 +4631,74 @@
       <c r="H180" s="10"/>
       <c r="I180" s="10"/>
       <c r="L180" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="M180" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N180"/>
       <c r="O180"/>
       <c r="P180"/>
     </row>
     <row r="181" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D181" s="8"/>
-      <c r="E181" s="10"/>
+      <c r="D181" s="8">
+        <v>8</v>
+      </c>
+      <c r="E181" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="F181" s="10"/>
-      <c r="G181" s="10"/>
+      <c r="G181" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="H181" s="10"/>
       <c r="I181" s="10"/>
+      <c r="L181" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M181" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="N181"/>
       <c r="O181"/>
       <c r="P181"/>
     </row>
     <row r="182" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B182" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="D182" s="8"/>
       <c r="E182" s="10"/>
-      <c r="F182" s="10" t="s">
-        <v>86</v>
-      </c>
+      <c r="F182" s="10"/>
       <c r="G182" s="10"/>
       <c r="H182" s="10"/>
       <c r="I182" s="10"/>
-      <c r="L182" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="N182"/>
       <c r="O182"/>
       <c r="P182"/>
     </row>
     <row r="183" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D183" s="8">
-        <v>1</v>
-      </c>
-      <c r="E183" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F183" s="10"/>
-      <c r="G183" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="B183" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D183" s="8"/>
+      <c r="E183" s="10"/>
+      <c r="F183" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G183" s="10"/>
       <c r="H183" s="10"/>
       <c r="I183" s="10"/>
       <c r="L183" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M183" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="N183"/>
       <c r="O183"/>
       <c r="P183"/>
     </row>
     <row r="184" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D184" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E184" s="10" t="s">
         <v>59</v>
@@ -4770,10 +4710,10 @@
       <c r="H184" s="10"/>
       <c r="I184" s="10"/>
       <c r="L184" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="M184" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N184"/>
       <c r="O184"/>
@@ -4781,7 +4721,7 @@
     </row>
     <row r="185" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D185" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E185" s="10" t="s">
         <v>59</v>
@@ -4793,87 +4733,72 @@
       <c r="H185" s="10"/>
       <c r="I185" s="10"/>
       <c r="L185" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="M185" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N185"/>
       <c r="O185"/>
       <c r="P185"/>
     </row>
     <row r="186" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D186" s="8">
-        <v>4</v>
-      </c>
-      <c r="E186" s="10" t="s">
-        <v>59</v>
-      </c>
+      <c r="D186" s="8"/>
+      <c r="E186" s="10"/>
       <c r="F186" s="10"/>
-      <c r="G186" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="G186" s="10"/>
       <c r="H186" s="10"/>
       <c r="I186" s="10"/>
-      <c r="L186" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M186" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="N186"/>
       <c r="O186"/>
       <c r="P186"/>
     </row>
-    <row r="187" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D187" s="8">
-        <v>5</v>
-      </c>
-      <c r="E187" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F187" s="10"/>
-      <c r="G187" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H187" s="10"/>
-      <c r="I187" s="10"/>
-      <c r="L187" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M187" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="N187"/>
-      <c r="O187"/>
-      <c r="P187"/>
+    <row r="187" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B187" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C187" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D187" s="11"/>
+      <c r="E187" s="11"/>
+      <c r="F187" s="11"/>
+      <c r="G187" s="11"/>
+      <c r="H187" s="11"/>
+      <c r="I187" s="11"/>
+      <c r="J187" s="11"/>
+      <c r="K187" s="11"/>
+      <c r="L187" s="11"/>
+      <c r="M187" s="11"/>
+      <c r="N187" s="11"/>
+      <c r="O187" s="11"/>
+      <c r="P187" s="11"/>
     </row>
     <row r="188" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D188" s="8">
-        <v>6</v>
-      </c>
-      <c r="E188" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F188" s="10"/>
-      <c r="G188" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="B188" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D188" s="8"/>
+      <c r="E188" s="10"/>
+      <c r="F188" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G188" s="10"/>
       <c r="H188" s="10"/>
       <c r="I188" s="10"/>
       <c r="L188" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M188" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="N188"/>
       <c r="O188"/>
       <c r="P188"/>
     </row>
     <row r="189" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D189" s="8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E189" s="10" t="s">
         <v>59</v>
@@ -4885,1858 +4810,278 @@
       <c r="H189" s="10"/>
       <c r="I189" s="10"/>
       <c r="L189" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M189" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="N189"/>
       <c r="O189"/>
       <c r="P189"/>
     </row>
     <row r="190" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D190" s="8">
-        <v>8</v>
-      </c>
-      <c r="E190" s="10" t="s">
-        <v>59</v>
-      </c>
+      <c r="D190" s="8"/>
+      <c r="E190" s="10"/>
       <c r="F190" s="10"/>
-      <c r="G190" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="G190" s="10"/>
       <c r="H190" s="10"/>
       <c r="I190" s="10"/>
-      <c r="L190" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M190" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="N190"/>
       <c r="O190"/>
       <c r="P190"/>
     </row>
     <row r="191" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B191" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="D191" s="8"/>
       <c r="E191" s="10"/>
-      <c r="F191" s="10"/>
+      <c r="F191" s="10" t="s">
+        <v>97</v>
+      </c>
       <c r="G191" s="10"/>
       <c r="H191" s="10"/>
       <c r="I191" s="10"/>
+      <c r="L191" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="N191"/>
       <c r="O191"/>
       <c r="P191"/>
     </row>
     <row r="192" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B192" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D192" s="8"/>
-      <c r="E192" s="10"/>
-      <c r="F192" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="G192" s="10"/>
+      <c r="D192" s="8">
+        <v>1</v>
+      </c>
+      <c r="E192" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F192" s="10"/>
+      <c r="G192" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="H192" s="10"/>
       <c r="I192" s="10"/>
       <c r="L192" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="N192"/>
       <c r="O192"/>
       <c r="P192"/>
     </row>
     <row r="193" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D193" s="8">
-        <v>1</v>
-      </c>
-      <c r="E193" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F193" s="10"/>
-      <c r="G193" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H193" s="10"/>
-      <c r="I193" s="10"/>
-      <c r="L193" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M193" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="N193"/>
       <c r="O193"/>
       <c r="P193"/>
     </row>
-    <row r="194" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D194" s="8">
-        <v>2</v>
-      </c>
-      <c r="E194" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F194" s="10"/>
-      <c r="G194" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H194" s="10"/>
-      <c r="I194" s="10"/>
-      <c r="L194" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M194" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="N194"/>
-      <c r="O194"/>
-      <c r="P194"/>
+    <row r="194" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B194" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C194" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D194" s="11"/>
+      <c r="E194" s="11"/>
+      <c r="F194" s="11"/>
+      <c r="G194" s="11"/>
+      <c r="H194" s="11"/>
+      <c r="I194" s="11"/>
+      <c r="J194" s="11"/>
+      <c r="K194" s="11"/>
+      <c r="L194" s="11"/>
+      <c r="M194" s="11"/>
+      <c r="N194" s="11"/>
+      <c r="O194" s="11"/>
+      <c r="P194" s="11"/>
     </row>
     <row r="195" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D195" s="8">
-        <v>3</v>
-      </c>
-      <c r="E195" s="10" t="s">
-        <v>59</v>
-      </c>
+      <c r="D195" s="8"/>
+      <c r="E195" s="10"/>
       <c r="F195" s="10"/>
-      <c r="G195" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="G195" s="10"/>
       <c r="H195" s="10"/>
       <c r="I195" s="10"/>
-      <c r="L195" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M195" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="N195"/>
       <c r="O195"/>
       <c r="P195"/>
     </row>
     <row r="196" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D196" s="8">
-        <v>4</v>
-      </c>
-      <c r="E196" s="10" t="s">
-        <v>59</v>
-      </c>
+      <c r="D196" s="8"/>
+      <c r="E196" s="10"/>
       <c r="F196" s="10"/>
-      <c r="G196" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="G196" s="10"/>
       <c r="H196" s="10"/>
       <c r="I196" s="10"/>
-      <c r="L196" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M196" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="N196"/>
       <c r="O196"/>
       <c r="P196"/>
     </row>
-    <row r="197" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D197" s="8">
-        <v>5</v>
-      </c>
-      <c r="E197" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F197" s="10"/>
-      <c r="G197" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H197" s="10"/>
-      <c r="I197" s="10"/>
-      <c r="L197" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M197" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="N197"/>
-      <c r="O197"/>
-      <c r="P197"/>
+    <row r="197" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B197" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C197" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D197" s="11"/>
+      <c r="E197" s="11"/>
+      <c r="F197" s="11"/>
+      <c r="G197" s="11"/>
+      <c r="H197" s="11"/>
+      <c r="I197" s="11"/>
+      <c r="J197" s="11"/>
+      <c r="K197" s="11"/>
+      <c r="L197" s="11"/>
+      <c r="M197" s="11"/>
+      <c r="N197" s="11"/>
+      <c r="O197" s="11"/>
+      <c r="P197" s="11"/>
     </row>
     <row r="198" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D198" s="8">
-        <v>6</v>
-      </c>
-      <c r="E198" s="10" t="s">
-        <v>59</v>
-      </c>
+      <c r="D198" s="8"/>
+      <c r="E198" s="10"/>
       <c r="F198" s="10"/>
-      <c r="G198" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="G198" s="10"/>
       <c r="H198" s="10"/>
       <c r="I198" s="10"/>
-      <c r="L198" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M198" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="N198"/>
       <c r="O198"/>
       <c r="P198"/>
     </row>
     <row r="199" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D199" s="8">
-        <v>7</v>
-      </c>
-      <c r="E199" s="10" t="s">
-        <v>59</v>
-      </c>
+      <c r="D199" s="8"/>
+      <c r="E199" s="10"/>
       <c r="F199" s="10"/>
-      <c r="G199" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="G199" s="10"/>
       <c r="H199" s="10"/>
       <c r="I199" s="10"/>
-      <c r="L199" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M199" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="N199"/>
       <c r="O199"/>
       <c r="P199"/>
     </row>
-    <row r="200" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D200" s="8">
-        <v>8</v>
-      </c>
-      <c r="E200" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F200" s="10"/>
-      <c r="G200" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H200" s="10"/>
-      <c r="I200" s="10"/>
-      <c r="L200" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M200" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="N200"/>
-      <c r="O200"/>
-      <c r="P200"/>
+    <row r="200" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B200" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C200" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D200" s="13"/>
+      <c r="E200" s="13"/>
+      <c r="F200" s="13"/>
+      <c r="G200" s="13"/>
+      <c r="H200" s="13"/>
+      <c r="I200" s="13"/>
+      <c r="J200" s="13"/>
+      <c r="K200" s="13"/>
+      <c r="L200" s="13"/>
+      <c r="M200" s="13"/>
+      <c r="N200" s="13"/>
+      <c r="O200" s="11"/>
+      <c r="P200" s="11"/>
     </row>
     <row r="201" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D201" s="8"/>
-      <c r="E201" s="10"/>
-      <c r="F201" s="10"/>
-      <c r="G201" s="10"/>
-      <c r="H201" s="10"/>
-      <c r="I201" s="10"/>
+      <c r="B201"/>
+      <c r="C201"/>
+      <c r="D201"/>
+      <c r="E201"/>
+      <c r="F201"/>
+      <c r="G201"/>
+      <c r="H201"/>
+      <c r="I201"/>
+      <c r="J201"/>
+      <c r="K201"/>
+      <c r="L201"/>
+      <c r="M201"/>
       <c r="N201"/>
       <c r="O201"/>
       <c r="P201"/>
     </row>
     <row r="202" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B202" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D202" s="8"/>
-      <c r="E202" s="10"/>
-      <c r="F202" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G202" s="10"/>
-      <c r="H202" s="10"/>
-      <c r="I202" s="10"/>
-      <c r="L202" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N202"/>
+      <c r="B202"/>
+      <c r="C202"/>
+      <c r="D202"/>
+      <c r="E202"/>
+      <c r="F202"/>
+      <c r="G202"/>
+      <c r="H202"/>
+      <c r="I202"/>
+      <c r="J202"/>
+      <c r="K202"/>
+      <c r="L202"/>
+      <c r="M202"/>
+      <c r="N202" s="14"/>
       <c r="O202"/>
       <c r="P202"/>
     </row>
     <row r="203" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D203" s="8">
-        <v>1</v>
-      </c>
-      <c r="E203" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F203" s="10"/>
-      <c r="G203" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H203" s="10"/>
-      <c r="I203" s="10"/>
-      <c r="L203" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M203" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="B203"/>
+      <c r="C203"/>
+      <c r="D203"/>
+      <c r="E203"/>
+      <c r="F203"/>
+      <c r="G203"/>
+      <c r="H203"/>
+      <c r="I203"/>
+      <c r="J203"/>
+      <c r="K203"/>
+      <c r="L203"/>
+      <c r="M203"/>
       <c r="N203"/>
-      <c r="O203"/>
-      <c r="P203"/>
     </row>
     <row r="204" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D204" s="8">
-        <v>2</v>
-      </c>
-      <c r="E204" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F204" s="10"/>
-      <c r="G204" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H204" s="10"/>
-      <c r="I204" s="10"/>
-      <c r="L204" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M204" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="N204"/>
-      <c r="O204"/>
-      <c r="P204"/>
+      <c r="B204"/>
+      <c r="C204"/>
+      <c r="D204"/>
+      <c r="E204"/>
+      <c r="F204"/>
+      <c r="G204"/>
+      <c r="H204"/>
+      <c r="I204"/>
+      <c r="J204"/>
+      <c r="K204"/>
+      <c r="L204"/>
+      <c r="M204"/>
+      <c r="N204" s="14"/>
     </row>
     <row r="205" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D205" s="8"/>
-      <c r="E205" s="10"/>
-      <c r="F205" s="10"/>
-      <c r="G205" s="10"/>
-      <c r="H205" s="10"/>
-      <c r="I205" s="10"/>
+      <c r="B205"/>
+      <c r="C205"/>
+      <c r="D205"/>
+      <c r="E205"/>
+      <c r="F205"/>
+      <c r="G205"/>
+      <c r="H205"/>
+      <c r="I205"/>
+      <c r="J205"/>
+      <c r="K205"/>
+      <c r="L205"/>
+      <c r="M205"/>
       <c r="N205"/>
-      <c r="O205"/>
-      <c r="P205"/>
-    </row>
-    <row r="206" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B206" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C206" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D206" s="11"/>
-      <c r="E206" s="11"/>
-      <c r="F206" s="11"/>
-      <c r="G206" s="11"/>
-      <c r="H206" s="11"/>
-      <c r="I206" s="11"/>
-      <c r="J206" s="11"/>
-      <c r="K206" s="11"/>
-      <c r="L206" s="11"/>
-      <c r="M206" s="11"/>
-      <c r="N206" s="11"/>
-      <c r="O206" s="11"/>
-      <c r="P206" s="11"/>
-    </row>
-    <row r="207" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B207" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D207" s="8"/>
-      <c r="E207" s="10"/>
-      <c r="F207" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G207" s="10"/>
-      <c r="H207" s="10"/>
-      <c r="I207" s="10"/>
-      <c r="L207" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N207"/>
-      <c r="O207"/>
-      <c r="P207"/>
-    </row>
-    <row r="208" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D208" s="8">
-        <v>1</v>
-      </c>
-      <c r="E208" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F208" s="10"/>
-      <c r="G208" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H208" s="10"/>
-      <c r="I208" s="10"/>
-      <c r="L208" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M208" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N208"/>
-      <c r="O208"/>
-      <c r="P208"/>
-    </row>
-    <row r="209" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D209" s="8">
-        <v>2</v>
-      </c>
-      <c r="E209" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F209" s="10"/>
-      <c r="G209" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H209" s="10"/>
-      <c r="I209" s="10"/>
-      <c r="L209" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M209" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N209"/>
-      <c r="O209"/>
-      <c r="P209"/>
-    </row>
-    <row r="210" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D210" s="8">
-        <v>3</v>
-      </c>
-      <c r="E210" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F210" s="10"/>
-      <c r="G210" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H210" s="10"/>
-      <c r="I210" s="10"/>
-      <c r="L210" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M210" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N210"/>
-      <c r="O210"/>
-      <c r="P210"/>
-    </row>
-    <row r="211" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D211" s="8">
-        <v>4</v>
-      </c>
-      <c r="E211" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F211" s="10"/>
-      <c r="G211" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H211" s="10"/>
-      <c r="I211" s="10"/>
-      <c r="L211" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M211" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N211"/>
-      <c r="O211"/>
-      <c r="P211"/>
-    </row>
-    <row r="212" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D212" s="8">
-        <v>5</v>
-      </c>
-      <c r="E212" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F212" s="10"/>
-      <c r="G212" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H212" s="10"/>
-      <c r="I212" s="10"/>
-      <c r="L212" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M212" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N212"/>
-      <c r="O212"/>
-      <c r="P212"/>
-    </row>
-    <row r="213" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D213" s="8">
-        <v>6</v>
-      </c>
-      <c r="E213" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F213" s="10"/>
-      <c r="G213" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H213" s="10"/>
-      <c r="I213" s="10"/>
-      <c r="L213" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M213" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N213"/>
-      <c r="O213"/>
-      <c r="P213"/>
-    </row>
-    <row r="214" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D214" s="8">
-        <v>7</v>
-      </c>
-      <c r="E214" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F214" s="10"/>
-      <c r="G214" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H214" s="10"/>
-      <c r="I214" s="10"/>
-      <c r="L214" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M214" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N214"/>
-      <c r="O214"/>
-      <c r="P214"/>
-    </row>
-    <row r="215" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D215" s="8">
-        <v>8</v>
-      </c>
-      <c r="E215" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F215" s="10"/>
-      <c r="G215" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H215" s="10"/>
-      <c r="I215" s="10"/>
-      <c r="L215" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M215" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N215"/>
-      <c r="O215"/>
-      <c r="P215"/>
-    </row>
-    <row r="216" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D216" s="8"/>
-      <c r="E216" s="10"/>
-      <c r="F216" s="10"/>
-      <c r="G216" s="10"/>
-      <c r="H216" s="10"/>
-      <c r="I216" s="10"/>
-      <c r="N216"/>
-      <c r="O216"/>
-      <c r="P216"/>
-    </row>
-    <row r="217" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B217" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D217" s="8"/>
-      <c r="E217" s="10"/>
-      <c r="F217" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="G217" s="10"/>
-      <c r="H217" s="10"/>
-      <c r="I217" s="10"/>
-      <c r="L217" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N217"/>
-      <c r="O217"/>
-      <c r="P217"/>
-    </row>
-    <row r="218" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D218" s="8">
-        <v>1</v>
-      </c>
-      <c r="E218" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F218" s="10"/>
-      <c r="G218" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H218" s="10"/>
-      <c r="I218" s="10"/>
-      <c r="L218" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M218" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N218"/>
-      <c r="O218"/>
-      <c r="P218"/>
-    </row>
-    <row r="219" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D219" s="8">
-        <v>2</v>
-      </c>
-      <c r="E219" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F219" s="10"/>
-      <c r="G219" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H219" s="10"/>
-      <c r="I219" s="10"/>
-      <c r="L219" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M219" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N219"/>
-      <c r="O219"/>
-      <c r="P219"/>
-    </row>
-    <row r="220" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D220" s="8">
-        <v>3</v>
-      </c>
-      <c r="E220" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F220" s="10"/>
-      <c r="G220" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H220" s="10"/>
-      <c r="I220" s="10"/>
-      <c r="L220" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M220" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N220"/>
-      <c r="O220"/>
-      <c r="P220"/>
-    </row>
-    <row r="221" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D221" s="8">
-        <v>4</v>
-      </c>
-      <c r="E221" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F221" s="10"/>
-      <c r="G221" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H221" s="10"/>
-      <c r="I221" s="10"/>
-      <c r="L221" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M221" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N221"/>
-      <c r="O221"/>
-      <c r="P221"/>
-    </row>
-    <row r="222" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D222" s="8">
-        <v>5</v>
-      </c>
-      <c r="E222" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F222" s="10"/>
-      <c r="G222" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H222" s="10"/>
-      <c r="I222" s="10"/>
-      <c r="L222" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M222" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N222"/>
-      <c r="O222"/>
-      <c r="P222"/>
-    </row>
-    <row r="223" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D223" s="8">
-        <v>6</v>
-      </c>
-      <c r="E223" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F223" s="10"/>
-      <c r="G223" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H223" s="10"/>
-      <c r="I223" s="10"/>
-      <c r="L223" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M223" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N223"/>
-      <c r="O223"/>
-      <c r="P223"/>
-    </row>
-    <row r="224" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D224" s="8">
-        <v>7</v>
-      </c>
-      <c r="E224" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F224" s="10"/>
-      <c r="G224" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H224" s="10"/>
-      <c r="I224" s="10"/>
-      <c r="L224" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M224" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N224"/>
-      <c r="O224"/>
-      <c r="P224"/>
-    </row>
-    <row r="225" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D225" s="8">
-        <v>8</v>
-      </c>
-      <c r="E225" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F225" s="10"/>
-      <c r="G225" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H225" s="10"/>
-      <c r="I225" s="10"/>
-      <c r="L225" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M225" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N225"/>
-      <c r="O225"/>
-      <c r="P225"/>
-    </row>
-    <row r="226" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D226" s="8"/>
-      <c r="E226" s="10"/>
-      <c r="F226" s="10"/>
-      <c r="G226" s="10"/>
-      <c r="H226" s="10"/>
-      <c r="I226" s="10"/>
-      <c r="N226"/>
-      <c r="O226"/>
-      <c r="P226"/>
-    </row>
-    <row r="227" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B227" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D227" s="8"/>
-      <c r="E227" s="10"/>
-      <c r="F227" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="G227" s="10"/>
-      <c r="H227" s="10"/>
-      <c r="I227" s="10"/>
-      <c r="L227" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N227"/>
-      <c r="O227"/>
-      <c r="P227"/>
-    </row>
-    <row r="228" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D228" s="8">
-        <v>1</v>
-      </c>
-      <c r="E228" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F228" s="10"/>
-      <c r="G228" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H228" s="10"/>
-      <c r="I228" s="10"/>
-      <c r="L228" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M228" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N228"/>
-      <c r="O228"/>
-      <c r="P228"/>
-    </row>
-    <row r="229" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D229" s="8">
-        <v>2</v>
-      </c>
-      <c r="E229" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F229" s="10"/>
-      <c r="G229" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H229" s="10"/>
-      <c r="I229" s="10"/>
-      <c r="L229" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M229" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N229"/>
-      <c r="O229"/>
-      <c r="P229"/>
-    </row>
-    <row r="230" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D230" s="8">
-        <v>3</v>
-      </c>
-      <c r="E230" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F230" s="10"/>
-      <c r="G230" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H230" s="10"/>
-      <c r="I230" s="10"/>
-      <c r="L230" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M230" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N230"/>
-      <c r="O230"/>
-      <c r="P230"/>
-    </row>
-    <row r="231" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D231" s="8">
-        <v>4</v>
-      </c>
-      <c r="E231" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F231" s="10"/>
-      <c r="G231" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H231" s="10"/>
-      <c r="I231" s="10"/>
-      <c r="L231" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M231" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N231"/>
-      <c r="O231"/>
-      <c r="P231"/>
-    </row>
-    <row r="232" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D232" s="8">
-        <v>5</v>
-      </c>
-      <c r="E232" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F232" s="10"/>
-      <c r="G232" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H232" s="10"/>
-      <c r="I232" s="10"/>
-      <c r="L232" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M232" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N232"/>
-      <c r="O232"/>
-      <c r="P232"/>
-    </row>
-    <row r="233" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D233" s="8">
-        <v>6</v>
-      </c>
-      <c r="E233" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F233" s="10"/>
-      <c r="G233" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H233" s="10"/>
-      <c r="I233" s="10"/>
-      <c r="L233" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M233" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N233"/>
-      <c r="O233"/>
-      <c r="P233"/>
-    </row>
-    <row r="234" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D234" s="8">
-        <v>7</v>
-      </c>
-      <c r="E234" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F234" s="10"/>
-      <c r="G234" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H234" s="10"/>
-      <c r="I234" s="10"/>
-      <c r="L234" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M234" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N234"/>
-      <c r="O234"/>
-      <c r="P234"/>
-    </row>
-    <row r="235" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D235" s="8">
-        <v>8</v>
-      </c>
-      <c r="E235" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F235" s="10"/>
-      <c r="G235" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H235" s="10"/>
-      <c r="I235" s="10"/>
-      <c r="L235" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M235" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N235"/>
-      <c r="O235"/>
-      <c r="P235"/>
-    </row>
-    <row r="236" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D236" s="8"/>
-      <c r="E236" s="10"/>
-      <c r="F236" s="10"/>
-      <c r="G236" s="10"/>
-      <c r="H236" s="10"/>
-      <c r="I236" s="10"/>
-      <c r="N236"/>
-      <c r="O236"/>
-      <c r="P236"/>
-    </row>
-    <row r="237" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B237" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D237" s="8"/>
-      <c r="E237" s="10"/>
-      <c r="F237" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G237" s="10"/>
-      <c r="H237" s="10"/>
-      <c r="I237" s="10"/>
-      <c r="L237" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N237"/>
-      <c r="O237"/>
-      <c r="P237"/>
-    </row>
-    <row r="238" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D238" s="8">
-        <v>1</v>
-      </c>
-      <c r="E238" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F238" s="10"/>
-      <c r="G238" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H238" s="10"/>
-      <c r="I238" s="10"/>
-      <c r="L238" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M238" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N238"/>
-      <c r="O238"/>
-      <c r="P238"/>
-    </row>
-    <row r="239" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D239" s="8">
-        <v>2</v>
-      </c>
-      <c r="E239" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F239" s="10"/>
-      <c r="G239" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H239" s="10"/>
-      <c r="I239" s="10"/>
-      <c r="L239" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M239" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N239"/>
-      <c r="O239"/>
-      <c r="P239"/>
-    </row>
-    <row r="240" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D240" s="8"/>
-      <c r="E240" s="10"/>
-      <c r="F240" s="10"/>
-      <c r="G240" s="10"/>
-      <c r="H240" s="10"/>
-      <c r="I240" s="10"/>
-      <c r="N240"/>
-      <c r="O240"/>
-      <c r="P240"/>
-    </row>
-    <row r="241" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B241" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C241" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D241" s="11"/>
-      <c r="E241" s="11"/>
-      <c r="F241" s="11"/>
-      <c r="G241" s="11"/>
-      <c r="H241" s="11"/>
-      <c r="I241" s="11"/>
-      <c r="J241" s="11"/>
-      <c r="K241" s="11"/>
-      <c r="L241" s="11"/>
-      <c r="M241" s="11"/>
-      <c r="N241" s="11"/>
-      <c r="O241" s="11"/>
-      <c r="P241" s="11"/>
-    </row>
-    <row r="242" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B242" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D242" s="8"/>
-      <c r="E242" s="10"/>
-      <c r="F242" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G242" s="10"/>
-      <c r="H242" s="10"/>
-      <c r="I242" s="10"/>
-      <c r="L242" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N242"/>
-      <c r="O242"/>
-      <c r="P242"/>
-    </row>
-    <row r="243" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D243" s="8">
-        <v>1</v>
-      </c>
-      <c r="E243" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F243" s="10"/>
-      <c r="G243" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H243" s="10"/>
-      <c r="I243" s="10"/>
-      <c r="L243" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N243"/>
-      <c r="O243"/>
-      <c r="P243"/>
-    </row>
-    <row r="244" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D244" s="8">
-        <v>2</v>
-      </c>
-      <c r="E244" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F244" s="10"/>
-      <c r="G244" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H244" s="10"/>
-      <c r="I244" s="10"/>
-      <c r="L244" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N244"/>
-      <c r="O244"/>
-      <c r="P244"/>
-    </row>
-    <row r="245" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D245" s="8">
-        <v>3</v>
-      </c>
-      <c r="E245" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F245" s="10"/>
-      <c r="G245" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H245" s="10"/>
-      <c r="I245" s="10"/>
-      <c r="L245" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N245"/>
-      <c r="O245"/>
-      <c r="P245"/>
-    </row>
-    <row r="246" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D246" s="8">
-        <v>4</v>
-      </c>
-      <c r="E246" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F246" s="10"/>
-      <c r="G246" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H246" s="10"/>
-      <c r="I246" s="10"/>
-      <c r="L246" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N246"/>
-      <c r="O246"/>
-      <c r="P246"/>
-    </row>
-    <row r="247" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D247" s="8">
-        <v>5</v>
-      </c>
-      <c r="E247" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F247" s="10"/>
-      <c r="G247" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H247" s="10"/>
-      <c r="I247" s="10"/>
-      <c r="L247" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N247"/>
-      <c r="O247"/>
-      <c r="P247"/>
-    </row>
-    <row r="248" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D248" s="8">
-        <v>6</v>
-      </c>
-      <c r="E248" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F248" s="10"/>
-      <c r="G248" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H248" s="10"/>
-      <c r="I248" s="10"/>
-      <c r="L248" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N248"/>
-      <c r="O248"/>
-      <c r="P248"/>
-    </row>
-    <row r="249" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D249" s="8">
-        <v>7</v>
-      </c>
-      <c r="E249" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F249" s="10"/>
-      <c r="G249" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H249" s="10"/>
-      <c r="I249" s="10"/>
-      <c r="L249" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N249"/>
-      <c r="O249"/>
-      <c r="P249"/>
-    </row>
-    <row r="250" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D250" s="8">
-        <v>8</v>
-      </c>
-      <c r="E250" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F250" s="10"/>
-      <c r="G250" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H250" s="10"/>
-      <c r="I250" s="10"/>
-      <c r="L250" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N250"/>
-      <c r="O250"/>
-      <c r="P250"/>
-    </row>
-    <row r="251" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D251" s="8">
-        <v>9</v>
-      </c>
-      <c r="E251" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F251" s="10"/>
-      <c r="G251" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H251" s="10"/>
-      <c r="I251" s="10"/>
-      <c r="L251" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N251"/>
-      <c r="O251"/>
-      <c r="P251"/>
-    </row>
-    <row r="252" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D252" s="8">
-        <v>10</v>
-      </c>
-      <c r="E252" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F252" s="10"/>
-      <c r="G252" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H252" s="10"/>
-      <c r="I252" s="10"/>
-      <c r="L252" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N252"/>
-      <c r="O252"/>
-      <c r="P252"/>
-    </row>
-    <row r="253" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D253" s="8">
-        <v>11</v>
-      </c>
-      <c r="E253" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F253" s="10"/>
-      <c r="G253" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H253" s="10"/>
-      <c r="I253" s="10"/>
-      <c r="L253" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N253"/>
-      <c r="O253"/>
-      <c r="P253"/>
-    </row>
-    <row r="254" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D254" s="8">
-        <v>12</v>
-      </c>
-      <c r="E254" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F254" s="10"/>
-      <c r="G254" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H254" s="10"/>
-      <c r="I254" s="10"/>
-      <c r="L254" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N254"/>
-      <c r="O254"/>
-      <c r="P254"/>
-    </row>
-    <row r="255" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D255" s="8">
-        <v>13</v>
-      </c>
-      <c r="E255" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F255" s="10"/>
-      <c r="G255" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H255" s="10"/>
-      <c r="I255" s="10"/>
-      <c r="L255" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N255"/>
-      <c r="O255"/>
-      <c r="P255"/>
-    </row>
-    <row r="256" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D256" s="8">
-        <v>14</v>
-      </c>
-      <c r="E256" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F256" s="10"/>
-      <c r="G256" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H256" s="10"/>
-      <c r="I256" s="10"/>
-      <c r="L256" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N256"/>
-      <c r="O256"/>
-      <c r="P256"/>
-    </row>
-    <row r="257" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D257" s="8">
-        <v>15</v>
-      </c>
-      <c r="E257" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F257" s="10"/>
-      <c r="G257" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H257" s="10"/>
-      <c r="I257" s="10"/>
-      <c r="L257" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N257"/>
-      <c r="O257"/>
-      <c r="P257"/>
-    </row>
-    <row r="258" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D258" s="8">
-        <v>16</v>
-      </c>
-      <c r="E258" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F258" s="10"/>
-      <c r="G258" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H258" s="10"/>
-      <c r="I258" s="10"/>
-      <c r="L258" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N258"/>
-      <c r="O258"/>
-      <c r="P258"/>
-    </row>
-    <row r="259" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D259" s="8">
-        <v>17</v>
-      </c>
-      <c r="E259" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F259" s="10"/>
-      <c r="G259" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H259" s="10"/>
-      <c r="I259" s="10"/>
-      <c r="L259" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N259"/>
-      <c r="O259"/>
-      <c r="P259"/>
-    </row>
-    <row r="260" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D260" s="8">
-        <v>18</v>
-      </c>
-      <c r="E260" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F260" s="10"/>
-      <c r="G260" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H260" s="10"/>
-      <c r="I260" s="10"/>
-      <c r="L260" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N260"/>
-      <c r="O260"/>
-      <c r="P260"/>
-    </row>
-    <row r="261" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D261" s="8">
-        <v>19</v>
-      </c>
-      <c r="E261" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F261" s="10"/>
-      <c r="G261" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H261" s="10"/>
-      <c r="I261" s="10"/>
-      <c r="L261" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N261"/>
-      <c r="O261"/>
-      <c r="P261"/>
-    </row>
-    <row r="262" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D262" s="8">
-        <v>20</v>
-      </c>
-      <c r="E262" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F262" s="10"/>
-      <c r="G262" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H262" s="10"/>
-      <c r="I262" s="10"/>
-      <c r="L262" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N262"/>
-      <c r="O262"/>
-      <c r="P262"/>
-    </row>
-    <row r="263" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D263" s="8">
-        <v>21</v>
-      </c>
-      <c r="E263" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F263" s="10"/>
-      <c r="G263" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H263" s="10"/>
-      <c r="I263" s="10"/>
-      <c r="L263" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N263"/>
-      <c r="O263"/>
-      <c r="P263"/>
-    </row>
-    <row r="264" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D264" s="8">
-        <v>22</v>
-      </c>
-      <c r="E264" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F264" s="10"/>
-      <c r="G264" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H264" s="10"/>
-      <c r="I264" s="10"/>
-      <c r="L264" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N264"/>
-      <c r="O264"/>
-      <c r="P264"/>
-    </row>
-    <row r="265" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D265" s="8">
-        <v>23</v>
-      </c>
-      <c r="E265" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F265" s="10"/>
-      <c r="G265" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H265" s="10"/>
-      <c r="I265" s="10"/>
-      <c r="L265" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N265"/>
-      <c r="O265"/>
-      <c r="P265"/>
-    </row>
-    <row r="266" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D266" s="8">
-        <v>24</v>
-      </c>
-      <c r="E266" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F266" s="10"/>
-      <c r="G266" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H266" s="10"/>
-      <c r="I266" s="10"/>
-      <c r="L266" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N266"/>
-      <c r="O266"/>
-      <c r="P266"/>
-    </row>
-    <row r="267" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D267" s="8">
-        <v>25</v>
-      </c>
-      <c r="E267" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F267" s="10"/>
-      <c r="G267" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H267" s="10"/>
-      <c r="I267" s="10"/>
-      <c r="L267" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N267"/>
-      <c r="O267"/>
-      <c r="P267"/>
-    </row>
-    <row r="268" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D268" s="8"/>
-      <c r="E268" s="10"/>
-      <c r="F268" s="10"/>
-      <c r="G268" s="10"/>
-      <c r="H268" s="10"/>
-      <c r="I268" s="10"/>
-      <c r="N268"/>
-      <c r="O268"/>
-      <c r="P268"/>
-    </row>
-    <row r="269" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B269" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C269" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D269" s="11"/>
-      <c r="E269" s="11"/>
-      <c r="F269" s="11"/>
-      <c r="G269" s="11"/>
-      <c r="H269" s="11"/>
-      <c r="I269" s="11"/>
-      <c r="J269" s="11"/>
-      <c r="K269" s="11"/>
-      <c r="L269" s="11"/>
-      <c r="M269" s="11"/>
-      <c r="N269" s="11"/>
-      <c r="O269" s="11"/>
-      <c r="P269" s="11"/>
-    </row>
-    <row r="270" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D270" s="8"/>
-      <c r="E270" s="10"/>
-      <c r="F270" s="10"/>
-      <c r="G270" s="10"/>
-      <c r="H270" s="10"/>
-      <c r="I270" s="10"/>
-      <c r="N270"/>
-      <c r="O270"/>
-      <c r="P270"/>
-    </row>
-    <row r="271" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D271" s="8"/>
-      <c r="E271" s="10"/>
-      <c r="F271" s="10"/>
-      <c r="G271" s="10"/>
-      <c r="H271" s="10"/>
-      <c r="I271" s="10"/>
-      <c r="N271"/>
-      <c r="O271"/>
-      <c r="P271"/>
-    </row>
-    <row r="272" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B272" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C272" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D272" s="11"/>
-      <c r="E272" s="11"/>
-      <c r="F272" s="11"/>
-      <c r="G272" s="11"/>
-      <c r="H272" s="11"/>
-      <c r="I272" s="11"/>
-      <c r="J272" s="11"/>
-      <c r="K272" s="11"/>
-      <c r="L272" s="11"/>
-      <c r="M272" s="11"/>
-      <c r="N272" s="11"/>
-      <c r="O272" s="11"/>
-      <c r="P272" s="11"/>
-    </row>
-    <row r="273" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D273" s="8"/>
-      <c r="E273" s="10"/>
-      <c r="F273" s="10"/>
-      <c r="G273" s="10"/>
-      <c r="H273" s="10"/>
-      <c r="I273" s="10"/>
-      <c r="N273"/>
-      <c r="O273"/>
-      <c r="P273"/>
-    </row>
-    <row r="274" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D274" s="8"/>
-      <c r="E274" s="10"/>
-      <c r="F274" s="10"/>
-      <c r="G274" s="10"/>
-      <c r="H274" s="10"/>
-      <c r="I274" s="10"/>
-      <c r="N274"/>
-      <c r="O274"/>
-      <c r="P274"/>
-    </row>
-    <row r="275" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B275" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C275" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D275" s="13"/>
-      <c r="E275" s="13"/>
-      <c r="F275" s="13"/>
-      <c r="G275" s="13"/>
-      <c r="H275" s="13"/>
-      <c r="I275" s="13"/>
-      <c r="J275" s="13"/>
-      <c r="K275" s="13"/>
-      <c r="L275" s="13"/>
-      <c r="M275" s="13"/>
-      <c r="N275" s="13"/>
-      <c r="O275" s="11"/>
-      <c r="P275" s="11"/>
-    </row>
-    <row r="276" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B276"/>
-      <c r="C276"/>
-      <c r="D276"/>
-      <c r="E276"/>
-      <c r="F276"/>
-      <c r="G276"/>
-      <c r="H276"/>
-      <c r="I276"/>
-      <c r="J276"/>
-      <c r="K276"/>
-      <c r="L276"/>
-      <c r="M276"/>
-      <c r="N276"/>
-      <c r="O276"/>
-      <c r="P276"/>
-    </row>
-    <row r="277" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B277"/>
-      <c r="C277"/>
-      <c r="D277"/>
-      <c r="E277"/>
-      <c r="F277"/>
-      <c r="G277"/>
-      <c r="H277"/>
-      <c r="I277"/>
-      <c r="J277"/>
-      <c r="K277"/>
-      <c r="L277"/>
-      <c r="M277"/>
-      <c r="N277" s="14"/>
-      <c r="O277"/>
-      <c r="P277"/>
-    </row>
-    <row r="278" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B278"/>
-      <c r="C278"/>
-      <c r="D278"/>
-      <c r="E278"/>
-      <c r="F278"/>
-      <c r="G278"/>
-      <c r="H278"/>
-      <c r="I278"/>
-      <c r="J278"/>
-      <c r="K278"/>
-      <c r="L278"/>
-      <c r="M278"/>
-      <c r="N278"/>
-    </row>
-    <row r="279" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B279"/>
-      <c r="C279"/>
-      <c r="D279"/>
-      <c r="E279"/>
-      <c r="F279"/>
-      <c r="G279"/>
-      <c r="H279"/>
-      <c r="I279"/>
-      <c r="J279"/>
-      <c r="K279"/>
-      <c r="L279"/>
-      <c r="M279"/>
-      <c r="N279" s="14"/>
-    </row>
-    <row r="280" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B280"/>
-      <c r="C280"/>
-      <c r="D280"/>
-      <c r="E280"/>
-      <c r="F280"/>
-      <c r="G280"/>
-      <c r="H280"/>
-      <c r="I280"/>
-      <c r="J280"/>
-      <c r="K280"/>
-      <c r="L280"/>
-      <c r="M280"/>
-      <c r="N280"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="B10:P276" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B10:P201" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="F1:P6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C288:C1127" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C213:C1052" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"VARIABLE,ARRAY,RECORD"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M15:M16 M18:M19 M21:M22 M27:M28 M30:M31 M33:M34 M12:M13 M270:M271 M273:M276 M24:M25 M207:M240 M242:M268 M36:M205" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M15:M16 M18:M19 M21:M22 M27:M28 M30:M31 M33:M34 M12:M13 M195:M196 M198:M201 M24:M25 M153:M186 M188:M193 M36:M151" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"rx,tx"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Object Code value" error="The Object code value shall be:_x000a_VARIABLE_x000a_RECORD_x000a_ARRAY" sqref="C12:C13 C15:C16 C18:C19 C21:C22 C27:C28 C30:C31 C33:C34 C207:C240 C270:C271 C273:C287 C24:C25 C36:C205 C242:C268" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Object Code value" error="The Object code value shall be:_x000a_VARIABLE_x000a_RECORD_x000a_ARRAY" sqref="C12:C13 C15:C16 C18:C19 C21:C22 C27:C28 C30:C31 C33:C34 C153:C186 C195:C196 C198:C212 C24:C25 C36:C151 C188:C192" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"VARIABLE,ARRAY,RECORD"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="C11 C14 C17 C20 C23 C26 C29 C32 C35 C206 C241 C269 C272" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Category" error="The value for the entry category shall be _x000a_M : (mandatory)_x000a_O : (optional) _x000a_C : (conditional)" sqref="J12:J13 J15:J16 J18:J19 J21:J22 J27:J28 J30:J31 J33:J34 J207:J240 J270:J271 J273:J287 J24:J25 J36:J205 J242:J268" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="C11 C14 C17 C20 C23 C26 C29 C32 C35 C152 C187 C194 C197" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Category" error="The value for the entry category shall be _x000a_M : (mandatory)_x000a_O : (optional) _x000a_C : (conditional)" sqref="J12:J13 J15:J16 J18:J19 J21:J22 J27:J28 J30:J31 J33:J34 J153:J186 J195:J196 J198:J212 J24:J25 J36:J151 J188:J192" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"M,O,C"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Backup/Setting Flag" error="The entry flag shall be_x000a_B : (Backup)_x000a_S : (Setting)" sqref="K12:K13 K15:K16 K18:K19 K21:K22 K27:K28 K30:K31 K33:K34 K207:K240 K270:K271 K273:K287 K24:K25 K36:K205 K242:K268" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Backup/Setting Flag" error="The entry flag shall be_x000a_B : (Backup)_x000a_S : (Setting)" sqref="K12:K13 K15:K16 K18:K19 K21:K22 K27:K28 K30:K31 K33:K34 K153:K186 K195:K196 K198:K212 K24:K25 K36:K151 K188:K192" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"B,S"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6746,4 +5091,278 @@
     <oddFooter>&amp;L&amp;F&amp;CPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100ED35F0256D409E42987BF98036DA9989" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61ea75deb4a032f98cafe45aa38f3ba3">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ab83d208-b7b8-4829-a129-d03539c0c0d7" xmlns:ns4="ef89b0e5-7345-4605-9a1c-4acb13fb8c8a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3580dc75d458420bc34e35ba09e33716" ns3:_="" ns4:_="">
+    <xsd:import namespace="ab83d208-b7b8-4829-a129-d03539c0c0d7"/>
+    <xsd:import namespace="ef89b0e5-7345-4605-9a1c-4acb13fb8c8a"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceSystemTags" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceDateTaken" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ab83d208-b7b8-4829-a129-d03539c0c0d7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="9" nillable="true" ma:displayName="Sharing Hint Hash" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="10" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ef89b0e5-7345-4605-9a1c-4acb13fb8c8a" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="13" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="14" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSystemTags" ma:index="15" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="19" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF0CCFE4-F70B-4F14-929D-A6D65641CA19}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ab83d208-b7b8-4829-a129-d03539c0c0d7"/>
+    <ds:schemaRef ds:uri="ef89b0e5-7345-4605-9a1c-4acb13fb8c8a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFB03729-4752-40CC-AACD-E363FA2FB05F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{317AF35F-2395-4670-BBDB-BA8E3287DD4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="ef89b0e5-7345-4605-9a1c-4acb13fb8c8a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="ab83d208-b7b8-4829-a129-d03539c0c0d7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/lib/soes-esi/lan9252_spi.xlsx
+++ b/lib/soes-esi/lan9252_spi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my-projects\work\crc-inc\workspace\soes-stm32f3\lib\soes-esi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D5A04A-A109-461A-93A2-50CF30D0C9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B23771-0FF5-479D-99F3-28DEDD61B3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="Profile" sheetId="11" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Profile!$B$10:$P$201</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Profile!$B$1:$P$202</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Profile!$B$10:$P$210</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Profile!$B$1:$P$211</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="105">
   <si>
     <t>Index</t>
   </si>
@@ -449,6 +449,24 @@
   </si>
   <si>
     <t>RTD 50/60 Hz Filter</t>
+  </si>
+  <si>
+    <t>0x8002</t>
+  </si>
+  <si>
+    <t>0x8003</t>
+  </si>
+  <si>
+    <t>RTD High Threshold</t>
+  </si>
+  <si>
+    <t>RTD Low Threshold</t>
+  </si>
+  <si>
+    <t>0x8004</t>
+  </si>
+  <si>
+    <t>IMU Full Scale</t>
   </si>
 </sst>
 </file>
@@ -869,11 +887,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:T205"/>
+  <dimension ref="B1:T214"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>
+      <pane ySplit="10" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J175" sqref="J175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -4837,7 +4855,7 @@
       <c r="D191" s="8"/>
       <c r="E191" s="10"/>
       <c r="F191" s="10" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G191" s="10"/>
       <c r="H191" s="10"/>
@@ -4854,7 +4872,7 @@
         <v>1</v>
       </c>
       <c r="E192" s="10" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F192" s="10"/>
       <c r="G192" s="10" t="s">
@@ -4870,38 +4888,54 @@
       <c r="P192"/>
     </row>
     <row r="193" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D193" s="8"/>
+      <c r="E193" s="10"/>
+      <c r="F193" s="10"/>
+      <c r="G193" s="10"/>
+      <c r="H193" s="10"/>
+      <c r="I193" s="10"/>
       <c r="N193"/>
       <c r="O193"/>
       <c r="P193"/>
     </row>
-    <row r="194" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C194" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D194" s="11"/>
-      <c r="E194" s="11"/>
-      <c r="F194" s="11"/>
-      <c r="G194" s="11"/>
-      <c r="H194" s="11"/>
-      <c r="I194" s="11"/>
-      <c r="J194" s="11"/>
-      <c r="K194" s="11"/>
-      <c r="L194" s="11"/>
-      <c r="M194" s="11"/>
-      <c r="N194" s="11"/>
-      <c r="O194" s="11"/>
-      <c r="P194" s="11"/>
+    <row r="194" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B194" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D194" s="8"/>
+      <c r="E194" s="10"/>
+      <c r="F194" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G194" s="10"/>
+      <c r="H194" s="10"/>
+      <c r="I194" s="10"/>
+      <c r="L194" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N194"/>
+      <c r="O194"/>
+      <c r="P194"/>
     </row>
     <row r="195" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D195" s="8"/>
-      <c r="E195" s="10"/>
+      <c r="D195" s="8">
+        <v>1</v>
+      </c>
+      <c r="E195" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="F195" s="10"/>
-      <c r="G195" s="10"/>
+      <c r="G195" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="H195" s="10"/>
       <c r="I195" s="10"/>
+      <c r="L195" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="N195"/>
       <c r="O195"/>
       <c r="P195"/>
@@ -4917,34 +4951,44 @@
       <c r="O196"/>
       <c r="P196"/>
     </row>
-    <row r="197" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C197" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D197" s="11"/>
-      <c r="E197" s="11"/>
-      <c r="F197" s="11"/>
-      <c r="G197" s="11"/>
-      <c r="H197" s="11"/>
-      <c r="I197" s="11"/>
-      <c r="J197" s="11"/>
-      <c r="K197" s="11"/>
-      <c r="L197" s="11"/>
-      <c r="M197" s="11"/>
-      <c r="N197" s="11"/>
-      <c r="O197" s="11"/>
-      <c r="P197" s="11"/>
+    <row r="197" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B197" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D197" s="8"/>
+      <c r="E197" s="10"/>
+      <c r="F197" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G197" s="10"/>
+      <c r="H197" s="10"/>
+      <c r="I197" s="10"/>
+      <c r="L197" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N197"/>
+      <c r="O197"/>
+      <c r="P197"/>
     </row>
     <row r="198" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D198" s="8"/>
-      <c r="E198" s="10"/>
+      <c r="D198" s="8">
+        <v>1</v>
+      </c>
+      <c r="E198" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="F198" s="10"/>
-      <c r="G198" s="10"/>
+      <c r="G198" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="H198" s="10"/>
       <c r="I198" s="10"/>
+      <c r="L198" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="N198"/>
       <c r="O198"/>
       <c r="P198"/>
@@ -4960,128 +5004,267 @@
       <c r="O199"/>
       <c r="P199"/>
     </row>
-    <row r="200" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C200" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D200" s="13"/>
-      <c r="E200" s="13"/>
-      <c r="F200" s="13"/>
-      <c r="G200" s="13"/>
-      <c r="H200" s="13"/>
-      <c r="I200" s="13"/>
-      <c r="J200" s="13"/>
-      <c r="K200" s="13"/>
-      <c r="L200" s="13"/>
-      <c r="M200" s="13"/>
-      <c r="N200" s="13"/>
-      <c r="O200" s="11"/>
-      <c r="P200" s="11"/>
+    <row r="200" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B200" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D200" s="8"/>
+      <c r="E200" s="10"/>
+      <c r="F200" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G200" s="10"/>
+      <c r="H200" s="10"/>
+      <c r="I200" s="10"/>
+      <c r="L200" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N200"/>
+      <c r="O200"/>
+      <c r="P200"/>
     </row>
     <row r="201" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B201"/>
-      <c r="C201"/>
-      <c r="D201"/>
-      <c r="E201"/>
-      <c r="F201"/>
-      <c r="G201"/>
-      <c r="H201"/>
-      <c r="I201"/>
-      <c r="J201"/>
-      <c r="K201"/>
-      <c r="L201"/>
-      <c r="M201"/>
+      <c r="D201" s="8">
+        <v>1</v>
+      </c>
+      <c r="E201" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F201" s="10"/>
+      <c r="G201" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H201" s="10"/>
+      <c r="I201" s="10"/>
+      <c r="L201" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="N201"/>
       <c r="O201"/>
       <c r="P201"/>
     </row>
     <row r="202" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B202"/>
-      <c r="C202"/>
-      <c r="D202"/>
-      <c r="E202"/>
-      <c r="F202"/>
-      <c r="G202"/>
-      <c r="H202"/>
-      <c r="I202"/>
-      <c r="J202"/>
-      <c r="K202"/>
-      <c r="L202"/>
-      <c r="M202"/>
-      <c r="N202" s="14"/>
+      <c r="D202" s="8"/>
+      <c r="E202" s="10"/>
+      <c r="F202" s="10"/>
+      <c r="G202" s="10"/>
+      <c r="H202" s="10"/>
+      <c r="I202" s="10"/>
+      <c r="N202"/>
       <c r="O202"/>
       <c r="P202"/>
     </row>
-    <row r="203" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B203"/>
-      <c r="C203"/>
-      <c r="D203"/>
-      <c r="E203"/>
-      <c r="F203"/>
-      <c r="G203"/>
-      <c r="H203"/>
-      <c r="I203"/>
-      <c r="J203"/>
-      <c r="K203"/>
-      <c r="L203"/>
-      <c r="M203"/>
-      <c r="N203"/>
+    <row r="203" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B203" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C203" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D203" s="11"/>
+      <c r="E203" s="11"/>
+      <c r="F203" s="11"/>
+      <c r="G203" s="11"/>
+      <c r="H203" s="11"/>
+      <c r="I203" s="11"/>
+      <c r="J203" s="11"/>
+      <c r="K203" s="11"/>
+      <c r="L203" s="11"/>
+      <c r="M203" s="11"/>
+      <c r="N203" s="11"/>
+      <c r="O203" s="11"/>
+      <c r="P203" s="11"/>
     </row>
     <row r="204" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B204"/>
-      <c r="C204"/>
-      <c r="D204"/>
-      <c r="E204"/>
-      <c r="F204"/>
-      <c r="G204"/>
-      <c r="H204"/>
-      <c r="I204"/>
-      <c r="J204"/>
-      <c r="K204"/>
-      <c r="L204"/>
-      <c r="M204"/>
-      <c r="N204" s="14"/>
+      <c r="D204" s="8"/>
+      <c r="E204" s="10"/>
+      <c r="F204" s="10"/>
+      <c r="G204" s="10"/>
+      <c r="H204" s="10"/>
+      <c r="I204" s="10"/>
+      <c r="N204"/>
+      <c r="O204"/>
+      <c r="P204"/>
     </row>
     <row r="205" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B205"/>
-      <c r="C205"/>
-      <c r="D205"/>
-      <c r="E205"/>
-      <c r="F205"/>
-      <c r="G205"/>
-      <c r="H205"/>
-      <c r="I205"/>
-      <c r="J205"/>
-      <c r="K205"/>
-      <c r="L205"/>
-      <c r="M205"/>
+      <c r="D205" s="8"/>
+      <c r="E205" s="10"/>
+      <c r="F205" s="10"/>
+      <c r="G205" s="10"/>
+      <c r="H205" s="10"/>
+      <c r="I205" s="10"/>
       <c r="N205"/>
+      <c r="O205"/>
+      <c r="P205"/>
+    </row>
+    <row r="206" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B206" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C206" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D206" s="11"/>
+      <c r="E206" s="11"/>
+      <c r="F206" s="11"/>
+      <c r="G206" s="11"/>
+      <c r="H206" s="11"/>
+      <c r="I206" s="11"/>
+      <c r="J206" s="11"/>
+      <c r="K206" s="11"/>
+      <c r="L206" s="11"/>
+      <c r="M206" s="11"/>
+      <c r="N206" s="11"/>
+      <c r="O206" s="11"/>
+      <c r="P206" s="11"/>
+    </row>
+    <row r="207" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D207" s="8"/>
+      <c r="E207" s="10"/>
+      <c r="F207" s="10"/>
+      <c r="G207" s="10"/>
+      <c r="H207" s="10"/>
+      <c r="I207" s="10"/>
+      <c r="N207"/>
+      <c r="O207"/>
+      <c r="P207"/>
+    </row>
+    <row r="208" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D208" s="8"/>
+      <c r="E208" s="10"/>
+      <c r="F208" s="10"/>
+      <c r="G208" s="10"/>
+      <c r="H208" s="10"/>
+      <c r="I208" s="10"/>
+      <c r="N208"/>
+      <c r="O208"/>
+      <c r="P208"/>
+    </row>
+    <row r="209" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B209" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C209" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D209" s="13"/>
+      <c r="E209" s="13"/>
+      <c r="F209" s="13"/>
+      <c r="G209" s="13"/>
+      <c r="H209" s="13"/>
+      <c r="I209" s="13"/>
+      <c r="J209" s="13"/>
+      <c r="K209" s="13"/>
+      <c r="L209" s="13"/>
+      <c r="M209" s="13"/>
+      <c r="N209" s="13"/>
+      <c r="O209" s="11"/>
+      <c r="P209" s="11"/>
+    </row>
+    <row r="210" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B210"/>
+      <c r="C210"/>
+      <c r="D210"/>
+      <c r="E210"/>
+      <c r="F210"/>
+      <c r="G210"/>
+      <c r="H210"/>
+      <c r="I210"/>
+      <c r="J210"/>
+      <c r="K210"/>
+      <c r="L210"/>
+      <c r="M210"/>
+      <c r="N210"/>
+      <c r="O210"/>
+      <c r="P210"/>
+    </row>
+    <row r="211" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B211"/>
+      <c r="C211"/>
+      <c r="D211"/>
+      <c r="E211"/>
+      <c r="F211"/>
+      <c r="G211"/>
+      <c r="H211"/>
+      <c r="I211"/>
+      <c r="J211"/>
+      <c r="K211"/>
+      <c r="L211"/>
+      <c r="M211"/>
+      <c r="N211" s="14"/>
+      <c r="O211"/>
+      <c r="P211"/>
+    </row>
+    <row r="212" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B212"/>
+      <c r="C212"/>
+      <c r="D212"/>
+      <c r="E212"/>
+      <c r="F212"/>
+      <c r="G212"/>
+      <c r="H212"/>
+      <c r="I212"/>
+      <c r="J212"/>
+      <c r="K212"/>
+      <c r="L212"/>
+      <c r="M212"/>
+      <c r="N212"/>
+    </row>
+    <row r="213" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B213"/>
+      <c r="C213"/>
+      <c r="D213"/>
+      <c r="E213"/>
+      <c r="F213"/>
+      <c r="G213"/>
+      <c r="H213"/>
+      <c r="I213"/>
+      <c r="J213"/>
+      <c r="K213"/>
+      <c r="L213"/>
+      <c r="M213"/>
+      <c r="N213" s="14"/>
+    </row>
+    <row r="214" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B214"/>
+      <c r="C214"/>
+      <c r="D214"/>
+      <c r="E214"/>
+      <c r="F214"/>
+      <c r="G214"/>
+      <c r="H214"/>
+      <c r="I214"/>
+      <c r="J214"/>
+      <c r="K214"/>
+      <c r="L214"/>
+      <c r="M214"/>
+      <c r="N214"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="B10:P201" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B10:P210" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="F1:P6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C213:C1052" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C222:C1061" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"VARIABLE,ARRAY,RECORD"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M15:M16 M18:M19 M21:M22 M27:M28 M30:M31 M33:M34 M12:M13 M195:M196 M198:M201 M24:M25 M153:M186 M188:M193 M36:M151" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M15:M16 M18:M19 M21:M22 M27:M28 M30:M31 M33:M34 M12:M13 M204:M205 M207:M210 M24:M25 M153:M186 M188:M202 M36:M151" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"rx,tx"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Object Code value" error="The Object code value shall be:_x000a_VARIABLE_x000a_RECORD_x000a_ARRAY" sqref="C12:C13 C15:C16 C18:C19 C21:C22 C27:C28 C30:C31 C33:C34 C153:C186 C195:C196 C198:C212 C24:C25 C36:C151 C188:C192" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Object Code value" error="The Object code value shall be:_x000a_VARIABLE_x000a_RECORD_x000a_ARRAY" sqref="C12:C13 C15:C16 C18:C19 C21:C22 C27:C28 C30:C31 C33:C34 C153:C186 C204:C205 C207:C221 C24:C25 C36:C151 C188:C202" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"VARIABLE,ARRAY,RECORD"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="C11 C14 C17 C20 C23 C26 C29 C32 C35 C152 C187 C194 C197" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Category" error="The value for the entry category shall be _x000a_M : (mandatory)_x000a_O : (optional) _x000a_C : (conditional)" sqref="J12:J13 J15:J16 J18:J19 J21:J22 J27:J28 J30:J31 J33:J34 J153:J186 J195:J196 J198:J212 J24:J25 J36:J151 J188:J192" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="C11 C14 C17 C20 C23 C26 C29 C32 C35 C152 C187 C203 C206" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Category" error="The value for the entry category shall be _x000a_M : (mandatory)_x000a_O : (optional) _x000a_C : (conditional)" sqref="J12:J13 J15:J16 J18:J19 J21:J22 J27:J28 J30:J31 J33:J34 J153:J186 J204:J205 J207:J221 J24:J25 J36:J151 J188:J202" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"M,O,C"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Backup/Setting Flag" error="The entry flag shall be_x000a_B : (Backup)_x000a_S : (Setting)" sqref="K12:K13 K15:K16 K18:K19 K21:K22 K27:K28 K30:K31 K33:K34 K153:K186 K195:K196 K198:K212 K24:K25 K36:K151 K188:K192" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Backup/Setting Flag" error="The entry flag shall be_x000a_B : (Backup)_x000a_S : (Setting)" sqref="K12:K13 K15:K16 K18:K19 K21:K22 K27:K28 K30:K31 K33:K34 K153:K186 K204:K205 K207:K221 K24:K25 K36:K151 K188:K202" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"B,S"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5094,6 +5277,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100ED35F0256D409E42987BF98036DA9989" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61ea75deb4a032f98cafe45aa38f3ba3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ab83d208-b7b8-4829-a129-d03539c0c0d7" xmlns:ns4="ef89b0e5-7345-4605-9a1c-4acb13fb8c8a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3580dc75d458420bc34e35ba09e33716" ns3:_="" ns4:_="">
     <xsd:import namespace="ab83d208-b7b8-4829-a129-d03539c0c0d7"/>
@@ -5308,15 +5500,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -5324,6 +5507,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFB03729-4752-40CC-AACD-E363FA2FB05F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF0CCFE4-F70B-4F14-929D-A6D65641CA19}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5338,14 +5529,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFB03729-4752-40CC-AACD-E363FA2FB05F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
